--- a/public/tmp_excel/tmp_excel.xlsx
+++ b/public/tmp_excel/tmp_excel.xlsx
@@ -2,19 +2,19 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bismark.escobar\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gema.arroliga\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6855"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,112 +24,68 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Ruta</t>
   </si>
   <si>
+    <t>F04</t>
+  </si>
+  <si>
+    <t>F06</t>
+  </si>
+  <si>
+    <t>F08</t>
+  </si>
+  <si>
+    <t>F09</t>
+  </si>
+  <si>
+    <t>F10</t>
+  </si>
+  <si>
+    <t>F11</t>
+  </si>
+  <si>
+    <t>Nombre(NO REQUERIDO)</t>
+  </si>
+  <si>
     <t>Meta Recuperacion</t>
   </si>
   <si>
-    <t>Nombre(NO REQUERIDO)</t>
-  </si>
-  <si>
-    <t>ESPERANZA CASTILLO - INSTITUCIONES</t>
-  </si>
-  <si>
-    <t>F02</t>
-  </si>
-  <si>
-    <t>F04</t>
-  </si>
-  <si>
-    <t>AURA SILVA / ORIENTAL</t>
-  </si>
-  <si>
-    <t>F03</t>
-  </si>
-  <si>
-    <t>F05</t>
-  </si>
-  <si>
-    <t>F06</t>
-  </si>
-  <si>
-    <t>F07</t>
-  </si>
-  <si>
-    <t>F08</t>
-  </si>
-  <si>
-    <t>F09</t>
-  </si>
-  <si>
-    <t>F10</t>
-  </si>
-  <si>
-    <t>F11</t>
-  </si>
-  <si>
-    <t>F13</t>
-  </si>
-  <si>
-    <t>F14</t>
-  </si>
-  <si>
-    <t>F15</t>
-  </si>
-  <si>
-    <t>F17</t>
-  </si>
-  <si>
-    <t>F20</t>
-  </si>
-  <si>
-    <t>ANA VELIA DUARTE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EDUARDO MONTALVAN </t>
-  </si>
-  <si>
-    <t>HEYDI CARMONA</t>
-  </si>
-  <si>
-    <t>YOLANDA TRUJILLO</t>
-  </si>
-  <si>
-    <t>ADELA SERRATO</t>
-  </si>
-  <si>
-    <t>NEYLING RAMIREZ</t>
-  </si>
-  <si>
-    <t>WALTER BALTODANO</t>
-  </si>
-  <si>
-    <t>AMELIA VARGAS</t>
-  </si>
-  <si>
-    <t>ILCE PAIZ</t>
-  </si>
-  <si>
-    <t>ALMA IRIS RODRIGUEZ</t>
-  </si>
-  <si>
-    <t>GERENCIA</t>
-  </si>
-  <si>
-    <t>ESPERANZA CASTILLO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ALBERTO BETANCO </t>
+    <t>Adolfo Garcia</t>
+  </si>
+  <si>
+    <t>Myrna Ordoñez</t>
+  </si>
+  <si>
+    <t>Mauricio Robleto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elizeth Vilchez </t>
+  </si>
+  <si>
+    <t>Brenda Gonzalez</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nohemy Alvarado </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +97,26 @@
       <b/>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -169,20 +145,58 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -244,9 +258,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -279,9 +293,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -461,193 +475,505 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E12" sqref="E11:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="35.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="11" customWidth="1"/>
+    <col min="2" max="3" width="25.5703125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="1" customWidth="1"/>
+    <col min="6" max="6" width="23.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="257" width="11.42578125" style="1"/>
+    <col min="258" max="258" width="22.140625" style="1" customWidth="1"/>
+    <col min="259" max="259" width="18.42578125" style="1" customWidth="1"/>
+    <col min="260" max="260" width="23.28515625" style="1" customWidth="1"/>
+    <col min="261" max="261" width="18" style="1" customWidth="1"/>
+    <col min="262" max="262" width="17.5703125" style="1" customWidth="1"/>
+    <col min="263" max="513" width="11.42578125" style="1"/>
+    <col min="514" max="514" width="22.140625" style="1" customWidth="1"/>
+    <col min="515" max="515" width="18.42578125" style="1" customWidth="1"/>
+    <col min="516" max="516" width="23.28515625" style="1" customWidth="1"/>
+    <col min="517" max="517" width="18" style="1" customWidth="1"/>
+    <col min="518" max="518" width="17.5703125" style="1" customWidth="1"/>
+    <col min="519" max="769" width="11.42578125" style="1"/>
+    <col min="770" max="770" width="22.140625" style="1" customWidth="1"/>
+    <col min="771" max="771" width="18.42578125" style="1" customWidth="1"/>
+    <col min="772" max="772" width="23.28515625" style="1" customWidth="1"/>
+    <col min="773" max="773" width="18" style="1" customWidth="1"/>
+    <col min="774" max="774" width="17.5703125" style="1" customWidth="1"/>
+    <col min="775" max="1025" width="11.42578125" style="1"/>
+    <col min="1026" max="1026" width="22.140625" style="1" customWidth="1"/>
+    <col min="1027" max="1027" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1028" max="1028" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1029" max="1029" width="18" style="1" customWidth="1"/>
+    <col min="1030" max="1030" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1031" max="1281" width="11.42578125" style="1"/>
+    <col min="1282" max="1282" width="22.140625" style="1" customWidth="1"/>
+    <col min="1283" max="1283" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1284" max="1284" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1285" max="1285" width="18" style="1" customWidth="1"/>
+    <col min="1286" max="1286" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1287" max="1537" width="11.42578125" style="1"/>
+    <col min="1538" max="1538" width="22.140625" style="1" customWidth="1"/>
+    <col min="1539" max="1539" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1540" max="1540" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1541" max="1541" width="18" style="1" customWidth="1"/>
+    <col min="1542" max="1542" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1543" max="1793" width="11.42578125" style="1"/>
+    <col min="1794" max="1794" width="22.140625" style="1" customWidth="1"/>
+    <col min="1795" max="1795" width="18.42578125" style="1" customWidth="1"/>
+    <col min="1796" max="1796" width="23.28515625" style="1" customWidth="1"/>
+    <col min="1797" max="1797" width="18" style="1" customWidth="1"/>
+    <col min="1798" max="1798" width="17.5703125" style="1" customWidth="1"/>
+    <col min="1799" max="2049" width="11.42578125" style="1"/>
+    <col min="2050" max="2050" width="22.140625" style="1" customWidth="1"/>
+    <col min="2051" max="2051" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2052" max="2052" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2053" max="2053" width="18" style="1" customWidth="1"/>
+    <col min="2054" max="2054" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2055" max="2305" width="11.42578125" style="1"/>
+    <col min="2306" max="2306" width="22.140625" style="1" customWidth="1"/>
+    <col min="2307" max="2307" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2308" max="2308" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2309" max="2309" width="18" style="1" customWidth="1"/>
+    <col min="2310" max="2310" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2311" max="2561" width="11.42578125" style="1"/>
+    <col min="2562" max="2562" width="22.140625" style="1" customWidth="1"/>
+    <col min="2563" max="2563" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2564" max="2564" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2565" max="2565" width="18" style="1" customWidth="1"/>
+    <col min="2566" max="2566" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2567" max="2817" width="11.42578125" style="1"/>
+    <col min="2818" max="2818" width="22.140625" style="1" customWidth="1"/>
+    <col min="2819" max="2819" width="18.42578125" style="1" customWidth="1"/>
+    <col min="2820" max="2820" width="23.28515625" style="1" customWidth="1"/>
+    <col min="2821" max="2821" width="18" style="1" customWidth="1"/>
+    <col min="2822" max="2822" width="17.5703125" style="1" customWidth="1"/>
+    <col min="2823" max="3073" width="11.42578125" style="1"/>
+    <col min="3074" max="3074" width="22.140625" style="1" customWidth="1"/>
+    <col min="3075" max="3075" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3076" max="3076" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3077" max="3077" width="18" style="1" customWidth="1"/>
+    <col min="3078" max="3078" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3079" max="3329" width="11.42578125" style="1"/>
+    <col min="3330" max="3330" width="22.140625" style="1" customWidth="1"/>
+    <col min="3331" max="3331" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3332" max="3332" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3333" max="3333" width="18" style="1" customWidth="1"/>
+    <col min="3334" max="3334" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3335" max="3585" width="11.42578125" style="1"/>
+    <col min="3586" max="3586" width="22.140625" style="1" customWidth="1"/>
+    <col min="3587" max="3587" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3588" max="3588" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3589" max="3589" width="18" style="1" customWidth="1"/>
+    <col min="3590" max="3590" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3591" max="3841" width="11.42578125" style="1"/>
+    <col min="3842" max="3842" width="22.140625" style="1" customWidth="1"/>
+    <col min="3843" max="3843" width="18.42578125" style="1" customWidth="1"/>
+    <col min="3844" max="3844" width="23.28515625" style="1" customWidth="1"/>
+    <col min="3845" max="3845" width="18" style="1" customWidth="1"/>
+    <col min="3846" max="3846" width="17.5703125" style="1" customWidth="1"/>
+    <col min="3847" max="4097" width="11.42578125" style="1"/>
+    <col min="4098" max="4098" width="22.140625" style="1" customWidth="1"/>
+    <col min="4099" max="4099" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4100" max="4100" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4101" max="4101" width="18" style="1" customWidth="1"/>
+    <col min="4102" max="4102" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4103" max="4353" width="11.42578125" style="1"/>
+    <col min="4354" max="4354" width="22.140625" style="1" customWidth="1"/>
+    <col min="4355" max="4355" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4356" max="4356" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4357" max="4357" width="18" style="1" customWidth="1"/>
+    <col min="4358" max="4358" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4359" max="4609" width="11.42578125" style="1"/>
+    <col min="4610" max="4610" width="22.140625" style="1" customWidth="1"/>
+    <col min="4611" max="4611" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4612" max="4612" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4613" max="4613" width="18" style="1" customWidth="1"/>
+    <col min="4614" max="4614" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4615" max="4865" width="11.42578125" style="1"/>
+    <col min="4866" max="4866" width="22.140625" style="1" customWidth="1"/>
+    <col min="4867" max="4867" width="18.42578125" style="1" customWidth="1"/>
+    <col min="4868" max="4868" width="23.28515625" style="1" customWidth="1"/>
+    <col min="4869" max="4869" width="18" style="1" customWidth="1"/>
+    <col min="4870" max="4870" width="17.5703125" style="1" customWidth="1"/>
+    <col min="4871" max="5121" width="11.42578125" style="1"/>
+    <col min="5122" max="5122" width="22.140625" style="1" customWidth="1"/>
+    <col min="5123" max="5123" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5124" max="5124" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5125" max="5125" width="18" style="1" customWidth="1"/>
+    <col min="5126" max="5126" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5127" max="5377" width="11.42578125" style="1"/>
+    <col min="5378" max="5378" width="22.140625" style="1" customWidth="1"/>
+    <col min="5379" max="5379" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5380" max="5380" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5381" max="5381" width="18" style="1" customWidth="1"/>
+    <col min="5382" max="5382" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5383" max="5633" width="11.42578125" style="1"/>
+    <col min="5634" max="5634" width="22.140625" style="1" customWidth="1"/>
+    <col min="5635" max="5635" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5636" max="5636" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5637" max="5637" width="18" style="1" customWidth="1"/>
+    <col min="5638" max="5638" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5639" max="5889" width="11.42578125" style="1"/>
+    <col min="5890" max="5890" width="22.140625" style="1" customWidth="1"/>
+    <col min="5891" max="5891" width="18.42578125" style="1" customWidth="1"/>
+    <col min="5892" max="5892" width="23.28515625" style="1" customWidth="1"/>
+    <col min="5893" max="5893" width="18" style="1" customWidth="1"/>
+    <col min="5894" max="5894" width="17.5703125" style="1" customWidth="1"/>
+    <col min="5895" max="6145" width="11.42578125" style="1"/>
+    <col min="6146" max="6146" width="22.140625" style="1" customWidth="1"/>
+    <col min="6147" max="6147" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6148" max="6148" width="23.28515625" style="1" customWidth="1"/>
+    <col min="6149" max="6149" width="18" style="1" customWidth="1"/>
+    <col min="6150" max="6150" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6151" max="6401" width="11.42578125" style="1"/>
+    <col min="6402" max="6402" width="22.140625" style="1" customWidth="1"/>
+    <col min="6403" max="6403" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6404" max="6404" width="23.28515625" style="1" customWidth="1"/>
+    <col min="6405" max="6405" width="18" style="1" customWidth="1"/>
+    <col min="6406" max="6406" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6407" max="6657" width="11.42578125" style="1"/>
+    <col min="6658" max="6658" width="22.140625" style="1" customWidth="1"/>
+    <col min="6659" max="6659" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6660" max="6660" width="23.28515625" style="1" customWidth="1"/>
+    <col min="6661" max="6661" width="18" style="1" customWidth="1"/>
+    <col min="6662" max="6662" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6663" max="6913" width="11.42578125" style="1"/>
+    <col min="6914" max="6914" width="22.140625" style="1" customWidth="1"/>
+    <col min="6915" max="6915" width="18.42578125" style="1" customWidth="1"/>
+    <col min="6916" max="6916" width="23.28515625" style="1" customWidth="1"/>
+    <col min="6917" max="6917" width="18" style="1" customWidth="1"/>
+    <col min="6918" max="6918" width="17.5703125" style="1" customWidth="1"/>
+    <col min="6919" max="7169" width="11.42578125" style="1"/>
+    <col min="7170" max="7170" width="22.140625" style="1" customWidth="1"/>
+    <col min="7171" max="7171" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7172" max="7172" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7173" max="7173" width="18" style="1" customWidth="1"/>
+    <col min="7174" max="7174" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7175" max="7425" width="11.42578125" style="1"/>
+    <col min="7426" max="7426" width="22.140625" style="1" customWidth="1"/>
+    <col min="7427" max="7427" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7428" max="7428" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7429" max="7429" width="18" style="1" customWidth="1"/>
+    <col min="7430" max="7430" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7431" max="7681" width="11.42578125" style="1"/>
+    <col min="7682" max="7682" width="22.140625" style="1" customWidth="1"/>
+    <col min="7683" max="7683" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7684" max="7684" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7685" max="7685" width="18" style="1" customWidth="1"/>
+    <col min="7686" max="7686" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7687" max="7937" width="11.42578125" style="1"/>
+    <col min="7938" max="7938" width="22.140625" style="1" customWidth="1"/>
+    <col min="7939" max="7939" width="18.42578125" style="1" customWidth="1"/>
+    <col min="7940" max="7940" width="23.28515625" style="1" customWidth="1"/>
+    <col min="7941" max="7941" width="18" style="1" customWidth="1"/>
+    <col min="7942" max="7942" width="17.5703125" style="1" customWidth="1"/>
+    <col min="7943" max="8193" width="11.42578125" style="1"/>
+    <col min="8194" max="8194" width="22.140625" style="1" customWidth="1"/>
+    <col min="8195" max="8195" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8196" max="8196" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8197" max="8197" width="18" style="1" customWidth="1"/>
+    <col min="8198" max="8198" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8199" max="8449" width="11.42578125" style="1"/>
+    <col min="8450" max="8450" width="22.140625" style="1" customWidth="1"/>
+    <col min="8451" max="8451" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8452" max="8452" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8453" max="8453" width="18" style="1" customWidth="1"/>
+    <col min="8454" max="8454" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8455" max="8705" width="11.42578125" style="1"/>
+    <col min="8706" max="8706" width="22.140625" style="1" customWidth="1"/>
+    <col min="8707" max="8707" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8708" max="8708" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8709" max="8709" width="18" style="1" customWidth="1"/>
+    <col min="8710" max="8710" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8711" max="8961" width="11.42578125" style="1"/>
+    <col min="8962" max="8962" width="22.140625" style="1" customWidth="1"/>
+    <col min="8963" max="8963" width="18.42578125" style="1" customWidth="1"/>
+    <col min="8964" max="8964" width="23.28515625" style="1" customWidth="1"/>
+    <col min="8965" max="8965" width="18" style="1" customWidth="1"/>
+    <col min="8966" max="8966" width="17.5703125" style="1" customWidth="1"/>
+    <col min="8967" max="9217" width="11.42578125" style="1"/>
+    <col min="9218" max="9218" width="22.140625" style="1" customWidth="1"/>
+    <col min="9219" max="9219" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9220" max="9220" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9221" max="9221" width="18" style="1" customWidth="1"/>
+    <col min="9222" max="9222" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9223" max="9473" width="11.42578125" style="1"/>
+    <col min="9474" max="9474" width="22.140625" style="1" customWidth="1"/>
+    <col min="9475" max="9475" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9476" max="9476" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9477" max="9477" width="18" style="1" customWidth="1"/>
+    <col min="9478" max="9478" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9479" max="9729" width="11.42578125" style="1"/>
+    <col min="9730" max="9730" width="22.140625" style="1" customWidth="1"/>
+    <col min="9731" max="9731" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9732" max="9732" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9733" max="9733" width="18" style="1" customWidth="1"/>
+    <col min="9734" max="9734" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9735" max="9985" width="11.42578125" style="1"/>
+    <col min="9986" max="9986" width="22.140625" style="1" customWidth="1"/>
+    <col min="9987" max="9987" width="18.42578125" style="1" customWidth="1"/>
+    <col min="9988" max="9988" width="23.28515625" style="1" customWidth="1"/>
+    <col min="9989" max="9989" width="18" style="1" customWidth="1"/>
+    <col min="9990" max="9990" width="17.5703125" style="1" customWidth="1"/>
+    <col min="9991" max="10241" width="11.42578125" style="1"/>
+    <col min="10242" max="10242" width="22.140625" style="1" customWidth="1"/>
+    <col min="10243" max="10243" width="18.42578125" style="1" customWidth="1"/>
+    <col min="10244" max="10244" width="23.28515625" style="1" customWidth="1"/>
+    <col min="10245" max="10245" width="18" style="1" customWidth="1"/>
+    <col min="10246" max="10246" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10247" max="10497" width="11.42578125" style="1"/>
+    <col min="10498" max="10498" width="22.140625" style="1" customWidth="1"/>
+    <col min="10499" max="10499" width="18.42578125" style="1" customWidth="1"/>
+    <col min="10500" max="10500" width="23.28515625" style="1" customWidth="1"/>
+    <col min="10501" max="10501" width="18" style="1" customWidth="1"/>
+    <col min="10502" max="10502" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10503" max="10753" width="11.42578125" style="1"/>
+    <col min="10754" max="10754" width="22.140625" style="1" customWidth="1"/>
+    <col min="10755" max="10755" width="18.42578125" style="1" customWidth="1"/>
+    <col min="10756" max="10756" width="23.28515625" style="1" customWidth="1"/>
+    <col min="10757" max="10757" width="18" style="1" customWidth="1"/>
+    <col min="10758" max="10758" width="17.5703125" style="1" customWidth="1"/>
+    <col min="10759" max="11009" width="11.42578125" style="1"/>
+    <col min="11010" max="11010" width="22.140625" style="1" customWidth="1"/>
+    <col min="11011" max="11011" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11012" max="11012" width="23.28515625" style="1" customWidth="1"/>
+    <col min="11013" max="11013" width="18" style="1" customWidth="1"/>
+    <col min="11014" max="11014" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11015" max="11265" width="11.42578125" style="1"/>
+    <col min="11266" max="11266" width="22.140625" style="1" customWidth="1"/>
+    <col min="11267" max="11267" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11268" max="11268" width="23.28515625" style="1" customWidth="1"/>
+    <col min="11269" max="11269" width="18" style="1" customWidth="1"/>
+    <col min="11270" max="11270" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11271" max="11521" width="11.42578125" style="1"/>
+    <col min="11522" max="11522" width="22.140625" style="1" customWidth="1"/>
+    <col min="11523" max="11523" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11524" max="11524" width="23.28515625" style="1" customWidth="1"/>
+    <col min="11525" max="11525" width="18" style="1" customWidth="1"/>
+    <col min="11526" max="11526" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11527" max="11777" width="11.42578125" style="1"/>
+    <col min="11778" max="11778" width="22.140625" style="1" customWidth="1"/>
+    <col min="11779" max="11779" width="18.42578125" style="1" customWidth="1"/>
+    <col min="11780" max="11780" width="23.28515625" style="1" customWidth="1"/>
+    <col min="11781" max="11781" width="18" style="1" customWidth="1"/>
+    <col min="11782" max="11782" width="17.5703125" style="1" customWidth="1"/>
+    <col min="11783" max="12033" width="11.42578125" style="1"/>
+    <col min="12034" max="12034" width="22.140625" style="1" customWidth="1"/>
+    <col min="12035" max="12035" width="18.42578125" style="1" customWidth="1"/>
+    <col min="12036" max="12036" width="23.28515625" style="1" customWidth="1"/>
+    <col min="12037" max="12037" width="18" style="1" customWidth="1"/>
+    <col min="12038" max="12038" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12039" max="12289" width="11.42578125" style="1"/>
+    <col min="12290" max="12290" width="22.140625" style="1" customWidth="1"/>
+    <col min="12291" max="12291" width="18.42578125" style="1" customWidth="1"/>
+    <col min="12292" max="12292" width="23.28515625" style="1" customWidth="1"/>
+    <col min="12293" max="12293" width="18" style="1" customWidth="1"/>
+    <col min="12294" max="12294" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12295" max="12545" width="11.42578125" style="1"/>
+    <col min="12546" max="12546" width="22.140625" style="1" customWidth="1"/>
+    <col min="12547" max="12547" width="18.42578125" style="1" customWidth="1"/>
+    <col min="12548" max="12548" width="23.28515625" style="1" customWidth="1"/>
+    <col min="12549" max="12549" width="18" style="1" customWidth="1"/>
+    <col min="12550" max="12550" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12551" max="12801" width="11.42578125" style="1"/>
+    <col min="12802" max="12802" width="22.140625" style="1" customWidth="1"/>
+    <col min="12803" max="12803" width="18.42578125" style="1" customWidth="1"/>
+    <col min="12804" max="12804" width="23.28515625" style="1" customWidth="1"/>
+    <col min="12805" max="12805" width="18" style="1" customWidth="1"/>
+    <col min="12806" max="12806" width="17.5703125" style="1" customWidth="1"/>
+    <col min="12807" max="13057" width="11.42578125" style="1"/>
+    <col min="13058" max="13058" width="22.140625" style="1" customWidth="1"/>
+    <col min="13059" max="13059" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13060" max="13060" width="23.28515625" style="1" customWidth="1"/>
+    <col min="13061" max="13061" width="18" style="1" customWidth="1"/>
+    <col min="13062" max="13062" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13063" max="13313" width="11.42578125" style="1"/>
+    <col min="13314" max="13314" width="22.140625" style="1" customWidth="1"/>
+    <col min="13315" max="13315" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13316" max="13316" width="23.28515625" style="1" customWidth="1"/>
+    <col min="13317" max="13317" width="18" style="1" customWidth="1"/>
+    <col min="13318" max="13318" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13319" max="13569" width="11.42578125" style="1"/>
+    <col min="13570" max="13570" width="22.140625" style="1" customWidth="1"/>
+    <col min="13571" max="13571" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13572" max="13572" width="23.28515625" style="1" customWidth="1"/>
+    <col min="13573" max="13573" width="18" style="1" customWidth="1"/>
+    <col min="13574" max="13574" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13575" max="13825" width="11.42578125" style="1"/>
+    <col min="13826" max="13826" width="22.140625" style="1" customWidth="1"/>
+    <col min="13827" max="13827" width="18.42578125" style="1" customWidth="1"/>
+    <col min="13828" max="13828" width="23.28515625" style="1" customWidth="1"/>
+    <col min="13829" max="13829" width="18" style="1" customWidth="1"/>
+    <col min="13830" max="13830" width="17.5703125" style="1" customWidth="1"/>
+    <col min="13831" max="14081" width="11.42578125" style="1"/>
+    <col min="14082" max="14082" width="22.140625" style="1" customWidth="1"/>
+    <col min="14083" max="14083" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14084" max="14084" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14085" max="14085" width="18" style="1" customWidth="1"/>
+    <col min="14086" max="14086" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14087" max="14337" width="11.42578125" style="1"/>
+    <col min="14338" max="14338" width="22.140625" style="1" customWidth="1"/>
+    <col min="14339" max="14339" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14340" max="14340" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14341" max="14341" width="18" style="1" customWidth="1"/>
+    <col min="14342" max="14342" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14343" max="14593" width="11.42578125" style="1"/>
+    <col min="14594" max="14594" width="22.140625" style="1" customWidth="1"/>
+    <col min="14595" max="14595" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14596" max="14596" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14597" max="14597" width="18" style="1" customWidth="1"/>
+    <col min="14598" max="14598" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14599" max="14849" width="11.42578125" style="1"/>
+    <col min="14850" max="14850" width="22.140625" style="1" customWidth="1"/>
+    <col min="14851" max="14851" width="18.42578125" style="1" customWidth="1"/>
+    <col min="14852" max="14852" width="23.28515625" style="1" customWidth="1"/>
+    <col min="14853" max="14853" width="18" style="1" customWidth="1"/>
+    <col min="14854" max="14854" width="17.5703125" style="1" customWidth="1"/>
+    <col min="14855" max="15105" width="11.42578125" style="1"/>
+    <col min="15106" max="15106" width="22.140625" style="1" customWidth="1"/>
+    <col min="15107" max="15107" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15108" max="15108" width="23.28515625" style="1" customWidth="1"/>
+    <col min="15109" max="15109" width="18" style="1" customWidth="1"/>
+    <col min="15110" max="15110" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15111" max="15361" width="11.42578125" style="1"/>
+    <col min="15362" max="15362" width="22.140625" style="1" customWidth="1"/>
+    <col min="15363" max="15363" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15364" max="15364" width="23.28515625" style="1" customWidth="1"/>
+    <col min="15365" max="15365" width="18" style="1" customWidth="1"/>
+    <col min="15366" max="15366" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15367" max="15617" width="11.42578125" style="1"/>
+    <col min="15618" max="15618" width="22.140625" style="1" customWidth="1"/>
+    <col min="15619" max="15619" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15620" max="15620" width="23.28515625" style="1" customWidth="1"/>
+    <col min="15621" max="15621" width="18" style="1" customWidth="1"/>
+    <col min="15622" max="15622" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15623" max="15873" width="11.42578125" style="1"/>
+    <col min="15874" max="15874" width="22.140625" style="1" customWidth="1"/>
+    <col min="15875" max="15875" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15876" max="15876" width="23.28515625" style="1" customWidth="1"/>
+    <col min="15877" max="15877" width="18" style="1" customWidth="1"/>
+    <col min="15878" max="15878" width="17.5703125" style="1" customWidth="1"/>
+    <col min="15879" max="16129" width="11.42578125" style="1"/>
+    <col min="16130" max="16130" width="22.140625" style="1" customWidth="1"/>
+    <col min="16131" max="16131" width="18.42578125" style="1" customWidth="1"/>
+    <col min="16132" max="16132" width="23.28515625" style="1" customWidth="1"/>
+    <col min="16133" max="16133" width="18" style="1" customWidth="1"/>
+    <col min="16134" max="16134" width="17.5703125" style="1" customWidth="1"/>
+    <col min="16135" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="14">
+        <v>331704.97399999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="14">
+        <v>331704.97399999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="15">
+        <v>45816.748000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1868024.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B5" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" s="15">
+        <v>119065.79799999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B6" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="15">
+        <v>131649.13200000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1">
-        <v>859301.89399999997</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1">
-        <v>263733.565</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" s="1">
-        <v>653387.67649999994</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="1">
-        <v>385949.03950000013</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="1">
-        <v>460480.61249999999</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" s="1">
-        <v>565072.97550000006</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C9" s="1">
-        <v>657935.31599999964</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" s="1">
-        <v>611599.08399999992</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="1">
-        <v>424566.09350000008</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="1">
-        <v>350024.28349999996</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="1">
-        <v>415850.29700000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" t="s">
-        <v>31</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="1">
-        <v>247701.86399999991</v>
-      </c>
+      <c r="C7" s="15">
+        <v>62163.132000000012</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="10"/>
+      <c r="B8"/>
+      <c r="C8" s="5"/>
+    </row>
+    <row r="10" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C13" s="6"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="7"/>
+    </row>
+    <row r="15" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
